--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3891.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3891.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.065705707601512</v>
+        <v>1.650777220726013</v>
       </c>
       <c r="B1">
-        <v>2.130338845167683</v>
+        <v>2.378071069717407</v>
       </c>
       <c r="C1">
-        <v>2.105757565298294</v>
+        <v>4.526685237884521</v>
       </c>
       <c r="D1">
-        <v>2.627834726032478</v>
+        <v>4.464462280273438</v>
       </c>
       <c r="E1">
-        <v>3.921153044376724</v>
+        <v>1.442973732948303</v>
       </c>
     </row>
   </sheetData>
